--- a/backend/example_data/ad-data.xlsx
+++ b/backend/example_data/ad-data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{118D795F-282D-4D4B-A8D4-F5443AAA55E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D699DEA7-D452-FE4E-ACD6-0145832A36F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="2120" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4457" uniqueCount="921">
   <si>
     <t>A203</t>
   </si>
@@ -2781,6 +2781,9 @@
   </si>
   <si>
     <t>Undefined</t>
+  </si>
+  <si>
+    <t>Material Type</t>
   </si>
 </sst>
 </file>
@@ -3117,11 +3120,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L890"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" zoomScale="165" workbookViewId="0">
-      <selection activeCell="G422" sqref="G422"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="I7" activeCellId="1" sqref="I1 I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
+  <cols>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
@@ -3149,7 +3155,7 @@
         <v>915</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>916</v>
